--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_17_13.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_17_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-574806.921370198</v>
+        <v>-577508.1380216547</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673438</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>79.51149230610433</v>
       </c>
       <c r="D2" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="G2" t="n">
-        <v>72.63544656439292</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -738,7 +738,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>35.75009467807066</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -747,10 +747,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>5.549818555123736</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -786,16 +786,16 @@
         <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -804,7 +804,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888208</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -865,19 +865,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>178.8163193404319</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>156.4161752943482</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -899,22 +899,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>129.4964586561392</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>257.8990495891725</v>
       </c>
       <c r="G5" t="n">
-        <v>383.6877278154307</v>
+        <v>12.41899097776993</v>
       </c>
       <c r="H5" t="n">
-        <v>309.9416328899766</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>99.30025118863695</v>
+        <v>99.30025118863689</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>143.3066953660375</v>
       </c>
       <c r="T5" t="n">
         <v>210.4722490968155</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>383.6877278154312</v>
       </c>
     </row>
     <row r="6">
@@ -975,10 +975,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>138.5445421428593</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -987,7 +987,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.8005767399402</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1020,16 +1020,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>4.360182258713863</v>
+        <v>3.195695870775223</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>143.0237294698459</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.9455960238326</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8398728426018</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1038,10 +1038,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1054,19 +1054,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>69.61526846263803</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1.905236112643578</v>
+        <v>1.905236112643536</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>119.1307056315184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>201.4735595059547</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2484721153922</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>111.9901930458184</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,25 +1133,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>313.007442824687</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,13 +1184,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>152.8668408935415</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,13 +1339,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>196.9208377482274</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1354,10 +1354,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>24.5527601906376</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.4696069132659</v>
       </c>
       <c r="H11" t="n">
         <v>289.9775033393748</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>98.88510599615216</v>
+        <v>98.88510599615213</v>
       </c>
       <c r="T11" t="n">
-        <v>201.9388203544492</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.959002459687</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1433,10 +1433,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>215.8233871785901</v>
+        <v>142.5715368161413</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1461,13 +1461,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.7575643133521</v>
+        <v>134.757564313352</v>
       </c>
       <c r="H12" t="n">
-        <v>87.26058381812553</v>
+        <v>87.26058381812551</v>
       </c>
       <c r="I12" t="n">
-        <v>10.48847705530794</v>
+        <v>10.48847705530792</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>145.0306850723329</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>6.719198553046231</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1543,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.9518949665179</v>
       </c>
       <c r="I13" t="n">
-        <v>90.25352389927377</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>186.2346889920369</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>218.682419239904</v>
@@ -1585,16 +1585,16 @@
         <v>286.2007761200435</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1768,7 +1768,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182149</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1780,7 +1780,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,16 +1813,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>253.2918698186412</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>179.6926686226132</v>
       </c>
     </row>
     <row r="17">
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1907,10 +1907,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784699</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560527</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2008,19 +2008,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229285</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>20.92847288553168</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>156.5238857907028</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>28.23631843387954</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,13 +2287,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>180.3302385618265</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,19 +2479,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>16.92025364381827</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428269</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881295</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>229.2938944146493</v>
+        <v>230.0898280815564</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695611</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>27.02919805176178</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>34.44192933414563</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695611</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3205,7 +3205,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>9.146142788179617</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3241,7 +3241,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>228.9553704673025</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,19 +3427,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3478,7 +3478,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>239.724785941013</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3664,22 +3664,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.0656089242831</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,22 +3706,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012162</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016445</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272882</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>245.8796921214435</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3737,16 +3737,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3904,16 +3904,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>102.1557845699822</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462238</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788181336</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272882</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3974,19 +3974,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417099</v>
       </c>
       <c r="G44" t="n">
         <v>409.8033385187866</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,19 +4138,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>19.91555826189108</v>
+        <v>9.146142788179031</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>634.1670622275112</v>
+        <v>900.5447187946894</v>
       </c>
       <c r="C2" t="n">
-        <v>634.1670622275112</v>
+        <v>820.2300801016547</v>
       </c>
       <c r="D2" t="n">
-        <v>367.7894056603332</v>
+        <v>820.2300801016547</v>
       </c>
       <c r="E2" t="n">
-        <v>101.4117490931552</v>
+        <v>820.2300801016547</v>
       </c>
       <c r="F2" t="n">
-        <v>94.46624834395173</v>
+        <v>553.8524235344767</v>
       </c>
       <c r="G2" t="n">
-        <v>21.0971104001205</v>
+        <v>287.4747669672986</v>
       </c>
       <c r="H2" t="n">
         <v>21.0971104001205</v>
@@ -4328,7 +4328,7 @@
         <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917587</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K2" t="n">
         <v>142.2640879052542</v>
@@ -4337,13 +4337,13 @@
         <v>294.5174947515907</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030604</v>
+        <v>495.5981834030605</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991318</v>
+        <v>704.5463761991319</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358416</v>
+        <v>888.5149683358417</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4355,25 +4355,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>900.5447187946892</v>
+        <v>900.5447187946894</v>
       </c>
       <c r="T2" t="n">
-        <v>900.5447187946892</v>
+        <v>900.5447187946894</v>
       </c>
       <c r="U2" t="n">
-        <v>900.5447187946892</v>
+        <v>900.5447187946894</v>
       </c>
       <c r="V2" t="n">
-        <v>900.5447187946892</v>
+        <v>900.5447187946894</v>
       </c>
       <c r="W2" t="n">
-        <v>900.5447187946892</v>
+        <v>900.5447187946894</v>
       </c>
       <c r="X2" t="n">
-        <v>900.5447187946892</v>
+        <v>900.5447187946894</v>
       </c>
       <c r="Y2" t="n">
-        <v>634.1670622275112</v>
+        <v>900.5447187946894</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>472.2715388461679</v>
+        <v>365.3801818123532</v>
       </c>
       <c r="C3" t="n">
-        <v>472.2715388461679</v>
+        <v>329.2689750668272</v>
       </c>
       <c r="D3" t="n">
-        <v>323.3371291849166</v>
+        <v>180.334565405576</v>
       </c>
       <c r="E3" t="n">
-        <v>164.0996741794611</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F3" t="n">
-        <v>158.4937968510533</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G3" t="n">
         <v>21.0971104001205</v>
@@ -4422,10 +4422,10 @@
         <v>643.1802110290002</v>
       </c>
       <c r="O3" t="n">
-        <v>813.1187583557301</v>
+        <v>904.2569522304914</v>
       </c>
       <c r="P3" t="n">
-        <v>930.1763583891336</v>
+        <v>1021.314552263895</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
@@ -4434,25 +4434,25 @@
         <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>887.8833378166546</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T3" t="n">
-        <v>887.8833378166546</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="U3" t="n">
-        <v>887.8833378166546</v>
+        <v>808.3837902496286</v>
       </c>
       <c r="V3" t="n">
-        <v>887.8833378166546</v>
+        <v>573.231682017886</v>
       </c>
       <c r="W3" t="n">
-        <v>887.8833378166546</v>
+        <v>573.231682017886</v>
       </c>
       <c r="X3" t="n">
-        <v>680.0318376111218</v>
+        <v>365.3801818123532</v>
       </c>
       <c r="Y3" t="n">
-        <v>472.2715388461679</v>
+        <v>365.3801818123532</v>
       </c>
     </row>
     <row r="4">
@@ -4462,46 +4462,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>353.1708304446448</v>
+        <v>169.0102039825136</v>
       </c>
       <c r="C4" t="n">
-        <v>184.2346475167379</v>
+        <v>169.0102039825136</v>
       </c>
       <c r="D4" t="n">
-        <v>184.2346475167379</v>
+        <v>169.0102039825136</v>
       </c>
       <c r="E4" t="n">
-        <v>36.32155393434482</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F4" t="n">
-        <v>36.32155393434482</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G4" t="n">
-        <v>36.32155393434482</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H4" t="n">
-        <v>36.32155393434482</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I4" t="n">
-        <v>36.32155393434482</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J4" t="n">
         <v>21.0971104001205</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287949</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551009</v>
+        <v>316.7083726551011</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375337</v>
+        <v>527.7368878375338</v>
       </c>
       <c r="N4" t="n">
         <v>739.1822330227047</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075544</v>
+        <v>918.4699372075546</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4513,25 +4513,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S4" t="n">
-        <v>874.2329752177097</v>
+        <v>848.0684854165363</v>
       </c>
       <c r="T4" t="n">
-        <v>874.2329752177097</v>
+        <v>848.0684854165363</v>
       </c>
       <c r="U4" t="n">
-        <v>607.8553186505317</v>
+        <v>581.6908288493582</v>
       </c>
       <c r="V4" t="n">
-        <v>353.1708304446448</v>
+        <v>327.0063406434714</v>
       </c>
       <c r="W4" t="n">
-        <v>353.1708304446448</v>
+        <v>169.0102039825136</v>
       </c>
       <c r="X4" t="n">
-        <v>353.1708304446448</v>
+        <v>169.0102039825136</v>
       </c>
       <c r="Y4" t="n">
-        <v>353.1708304446448</v>
+        <v>169.0102039825136</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>969.3840245806839</v>
+        <v>789.8350806775993</v>
       </c>
       <c r="C5" t="n">
-        <v>969.3840245806839</v>
+        <v>789.8350806775993</v>
       </c>
       <c r="D5" t="n">
-        <v>838.579520887614</v>
+        <v>789.8350806775993</v>
       </c>
       <c r="E5" t="n">
-        <v>838.579520887614</v>
+        <v>404.0468280793551</v>
       </c>
       <c r="F5" t="n">
-        <v>831.6340201384105</v>
+        <v>143.5427375852414</v>
       </c>
       <c r="G5" t="n">
-        <v>444.0706587086825</v>
+        <v>130.9983022541606</v>
       </c>
       <c r="H5" t="n">
-        <v>130.9983022541607</v>
+        <v>130.9983022541606</v>
       </c>
       <c r="I5" t="n">
-        <v>30.69501822523445</v>
+        <v>30.6950182252345</v>
       </c>
       <c r="J5" t="n">
-        <v>93.76641159275135</v>
+        <v>93.76641159275096</v>
       </c>
       <c r="K5" t="n">
-        <v>239.0325989245559</v>
+        <v>239.0325989245557</v>
       </c>
       <c r="L5" t="n">
-        <v>456.1499114825624</v>
+        <v>456.1499114825629</v>
       </c>
       <c r="M5" t="n">
-        <v>729.404193174885</v>
+        <v>729.4041931748858</v>
       </c>
       <c r="N5" t="n">
-        <v>1011.693823202378</v>
+        <v>1011.69382320238</v>
       </c>
       <c r="O5" t="n">
-        <v>1264.916654798412</v>
+        <v>1264.916654798413</v>
       </c>
       <c r="P5" t="n">
-        <v>1446.535482189408</v>
+        <v>1446.535482189411</v>
       </c>
       <c r="Q5" t="n">
-        <v>1534.750911261723</v>
+        <v>1534.750911261725</v>
       </c>
       <c r="R5" t="n">
-        <v>1534.750911261723</v>
+        <v>1534.750911261725</v>
       </c>
       <c r="S5" t="n">
-        <v>1534.750911261723</v>
+        <v>1389.996673518253</v>
       </c>
       <c r="T5" t="n">
-        <v>1322.152679850798</v>
+        <v>1177.398442107328</v>
       </c>
       <c r="U5" t="n">
-        <v>1322.152679850798</v>
+        <v>1177.398442107328</v>
       </c>
       <c r="V5" t="n">
-        <v>1322.152679850798</v>
+        <v>1177.398442107328</v>
       </c>
       <c r="W5" t="n">
-        <v>969.3840245806839</v>
+        <v>1177.398442107328</v>
       </c>
       <c r="X5" t="n">
-        <v>969.3840245806839</v>
+        <v>1177.398442107328</v>
       </c>
       <c r="Y5" t="n">
-        <v>969.3840245806839</v>
+        <v>789.8350806775993</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>625.3454228275405</v>
+        <v>473.6393309411184</v>
       </c>
       <c r="C6" t="n">
-        <v>485.4014408650563</v>
+        <v>473.6393309411184</v>
       </c>
       <c r="D6" t="n">
-        <v>336.467031203805</v>
+        <v>473.6393309411184</v>
       </c>
       <c r="E6" t="n">
-        <v>177.2295761983495</v>
+        <v>314.4018759356629</v>
       </c>
       <c r="F6" t="n">
-        <v>30.69501822523445</v>
+        <v>167.8673179625479</v>
       </c>
       <c r="G6" t="n">
-        <v>30.69501822523445</v>
+        <v>30.6950182252345</v>
       </c>
       <c r="H6" t="n">
-        <v>30.69501822523445</v>
+        <v>30.6950182252345</v>
       </c>
       <c r="I6" t="n">
-        <v>30.69501822523445</v>
+        <v>30.6950182252345</v>
       </c>
       <c r="J6" t="n">
-        <v>174.2721860626389</v>
+        <v>49.44206107563427</v>
       </c>
       <c r="K6" t="n">
-        <v>284.4686930039493</v>
+        <v>388.9600665101427</v>
       </c>
       <c r="L6" t="n">
-        <v>478.9640368353012</v>
+        <v>583.4554103414948</v>
       </c>
       <c r="M6" t="n">
-        <v>829.7791710122392</v>
+        <v>829.7791710122408</v>
       </c>
       <c r="N6" t="n">
-        <v>1097.031033584462</v>
+        <v>1097.031033584463</v>
       </c>
       <c r="O6" t="n">
-        <v>1319.29448074998</v>
+        <v>1319.294480749982</v>
       </c>
       <c r="P6" t="n">
-        <v>1478.347425948668</v>
+        <v>1478.34742594867</v>
       </c>
       <c r="Q6" t="n">
-        <v>1534.750911261723</v>
+        <v>1534.750911261725</v>
       </c>
       <c r="R6" t="n">
-        <v>1530.346686757971</v>
+        <v>1531.522935634679</v>
       </c>
       <c r="S6" t="n">
-        <v>1530.346686757971</v>
+        <v>1387.054522028774</v>
       </c>
       <c r="T6" t="n">
-        <v>1530.346686757971</v>
+        <v>1191.149879580458</v>
       </c>
       <c r="U6" t="n">
-        <v>1530.346686757971</v>
+        <v>963.0287959010627</v>
       </c>
       <c r="V6" t="n">
-        <v>1295.194578526229</v>
+        <v>727.8766876693201</v>
       </c>
       <c r="W6" t="n">
-        <v>1040.957221798027</v>
+        <v>473.6393309411184</v>
       </c>
       <c r="X6" t="n">
-        <v>833.1057215924943</v>
+        <v>473.6393309411184</v>
       </c>
       <c r="Y6" t="n">
-        <v>625.3454228275405</v>
+        <v>473.6393309411184</v>
       </c>
     </row>
     <row r="7">
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>32.61949914709665</v>
+        <v>716.7938155602064</v>
       </c>
       <c r="C7" t="n">
-        <v>32.61949914709665</v>
+        <v>547.8576326322996</v>
       </c>
       <c r="D7" t="n">
-        <v>32.61949914709665</v>
+        <v>397.7409932199638</v>
       </c>
       <c r="E7" t="n">
-        <v>32.61949914709665</v>
+        <v>249.8278996375707</v>
       </c>
       <c r="F7" t="n">
-        <v>32.61949914709665</v>
+        <v>102.9379521396603</v>
       </c>
       <c r="G7" t="n">
         <v>32.61949914709665</v>
@@ -4723,19 +4723,19 @@
         <v>32.61949914709665</v>
       </c>
       <c r="J7" t="n">
-        <v>30.69501822523445</v>
+        <v>30.6950182252345</v>
       </c>
       <c r="K7" t="n">
-        <v>157.4322756223266</v>
+        <v>157.4322756223268</v>
       </c>
       <c r="L7" t="n">
-        <v>375.1387655830388</v>
+        <v>375.138765583039</v>
       </c>
       <c r="M7" t="n">
-        <v>615.0688576388152</v>
+        <v>615.0688576388154</v>
       </c>
       <c r="N7" t="n">
-        <v>854.7285647974824</v>
+        <v>854.7285647974827</v>
       </c>
       <c r="O7" t="n">
         <v>1060.076798891672</v>
@@ -4747,28 +4747,28 @@
         <v>1234.200536495184</v>
       </c>
       <c r="R7" t="n">
-        <v>1113.866490402741</v>
+        <v>1234.200536495184</v>
       </c>
       <c r="S7" t="n">
-        <v>910.3578444371304</v>
+        <v>1234.200536495184</v>
       </c>
       <c r="T7" t="n">
-        <v>910.3578444371304</v>
+        <v>1234.200536495184</v>
       </c>
       <c r="U7" t="n">
-        <v>621.217973613502</v>
+        <v>1234.200536495184</v>
       </c>
       <c r="V7" t="n">
-        <v>366.5334854076151</v>
+        <v>1234.200536495184</v>
       </c>
       <c r="W7" t="n">
-        <v>253.4120782906268</v>
+        <v>944.7833664582238</v>
       </c>
       <c r="X7" t="n">
-        <v>253.4120782906268</v>
+        <v>716.7938155602064</v>
       </c>
       <c r="Y7" t="n">
-        <v>32.61949914709665</v>
+        <v>716.7938155602064</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1857.810682795505</v>
+        <v>1181.996585635751</v>
       </c>
       <c r="C8" t="n">
-        <v>1488.848165855093</v>
+        <v>1181.996585635751</v>
       </c>
       <c r="D8" t="n">
-        <v>1130.582467248343</v>
+        <v>1181.996585635751</v>
       </c>
       <c r="E8" t="n">
-        <v>744.7942146500984</v>
+        <v>1181.996585635751</v>
       </c>
       <c r="F8" t="n">
-        <v>737.8487139008949</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345444</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
         <v>51.24678656800311</v>
@@ -4808,10 +4808,10 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4832,22 +4832,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="V8" t="n">
-        <v>2231.276441056585</v>
+        <v>1945.601675872643</v>
       </c>
       <c r="W8" t="n">
-        <v>2231.276441056585</v>
+        <v>1945.601675872643</v>
       </c>
       <c r="X8" t="n">
-        <v>1857.810682795505</v>
+        <v>1572.135917611563</v>
       </c>
       <c r="Y8" t="n">
-        <v>1857.810682795505</v>
+        <v>1181.996585635751</v>
       </c>
     </row>
     <row r="9">
@@ -4863,19 +4863,19 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
         <v>51.24678656800311</v>
@@ -4890,19 +4890,19 @@
         <v>717.8525085495379</v>
       </c>
       <c r="M9" t="n">
-        <v>1352.031492328576</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N9" t="n">
-        <v>1843.432194560477</v>
+        <v>1468.399656105703</v>
       </c>
       <c r="O9" t="n">
-        <v>2175.502629736639</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P9" t="n">
-        <v>2422.685363568936</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4914,7 +4914,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>665.1026499885492</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="C10" t="n">
-        <v>496.1664670606423</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="D10" t="n">
-        <v>346.0498276483066</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="E10" t="n">
-        <v>198.1367340659135</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="F10" t="n">
-        <v>51.24678656800311</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800311</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I10" t="n">
         <v>51.24678656800311</v>
@@ -4987,25 +4987,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>1017.928954309672</v>
       </c>
       <c r="V10" t="n">
-        <v>1381.76163186861</v>
+        <v>763.2444661037855</v>
       </c>
       <c r="W10" t="n">
-        <v>1092.34446183165</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="X10" t="n">
-        <v>1067.543693962319</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="Y10" t="n">
-        <v>846.7511148187889</v>
+        <v>473.8272960668249</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1894.446607880606</v>
+        <v>2309.06237243946</v>
       </c>
       <c r="C11" t="n">
-        <v>1525.484090940194</v>
+        <v>1940.099855499049</v>
       </c>
       <c r="D11" t="n">
-        <v>1167.218392333444</v>
+        <v>1581.834156892299</v>
       </c>
       <c r="E11" t="n">
-        <v>781.4301397351996</v>
+        <v>1196.045904294054</v>
       </c>
       <c r="F11" t="n">
-        <v>370.4442349455922</v>
+        <v>785.0599995044468</v>
       </c>
       <c r="G11" t="n">
         <v>370.4442349455922</v>
       </c>
       <c r="H11" t="n">
-        <v>77.53766591592067</v>
+        <v>77.53766591592071</v>
       </c>
       <c r="I11" t="n">
-        <v>77.53766591592067</v>
+        <v>77.53766591592071</v>
       </c>
       <c r="J11" t="n">
-        <v>304.406079670689</v>
+        <v>304.4060796706885</v>
       </c>
       <c r="K11" t="n">
-        <v>695.1615405656955</v>
+        <v>695.1615405656948</v>
       </c>
       <c r="L11" t="n">
-        <v>1216.830004625329</v>
+        <v>1216.830004625328</v>
       </c>
       <c r="M11" t="n">
-        <v>1828.95612308783</v>
+        <v>1828.956123087829</v>
       </c>
       <c r="N11" t="n">
         <v>2455.600890484041</v>
       </c>
       <c r="O11" t="n">
-        <v>3033.988513535294</v>
+        <v>3033.988513535295</v>
       </c>
       <c r="P11" t="n">
-        <v>3493.127967479993</v>
+        <v>3493.127967479994</v>
       </c>
       <c r="Q11" t="n">
-        <v>3789.749829464058</v>
+        <v>3789.74982946406</v>
       </c>
       <c r="R11" t="n">
-        <v>3876.883295796034</v>
+        <v>3876.883295796035</v>
       </c>
       <c r="S11" t="n">
-        <v>3776.999350345375</v>
+        <v>3776.999350345377</v>
       </c>
       <c r="T11" t="n">
-        <v>3573.02074392674</v>
+        <v>3776.999350345377</v>
       </c>
       <c r="U11" t="n">
-        <v>3573.02074392674</v>
+        <v>3523.505408466905</v>
       </c>
       <c r="V11" t="n">
-        <v>3241.957856583169</v>
+        <v>3192.442521123334</v>
       </c>
       <c r="W11" t="n">
-        <v>2889.189201313055</v>
+        <v>2839.67386585322</v>
       </c>
       <c r="X11" t="n">
-        <v>2671.18577992054</v>
+        <v>2695.662212503582</v>
       </c>
       <c r="Y11" t="n">
-        <v>2281.046447944728</v>
+        <v>2695.662212503582</v>
       </c>
     </row>
     <row r="12">
@@ -5109,31 +5109,31 @@
         <v>312.3928428722697</v>
       </c>
       <c r="G12" t="n">
-        <v>176.2740910406009</v>
+        <v>176.274091040601</v>
       </c>
       <c r="H12" t="n">
-        <v>88.13208718390848</v>
+        <v>88.13208718390851</v>
       </c>
       <c r="I12" t="n">
-        <v>77.53766591592067</v>
+        <v>77.53766591592071</v>
       </c>
       <c r="J12" t="n">
-        <v>193.8410919870411</v>
+        <v>193.8410919870412</v>
       </c>
       <c r="K12" t="n">
-        <v>470.7769964046652</v>
+        <v>470.7769964046653</v>
       </c>
       <c r="L12" t="n">
-        <v>503.2284887929965</v>
+        <v>889.4740370626168</v>
       </c>
       <c r="M12" t="n">
-        <v>1011.185054749524</v>
+        <v>1397.430603019145</v>
       </c>
       <c r="N12" t="n">
-        <v>1546.994364450734</v>
+        <v>1546.994364450733</v>
       </c>
       <c r="O12" t="n">
-        <v>2014.935408783257</v>
+        <v>2014.935408783256</v>
       </c>
       <c r="P12" t="n">
         <v>2371.16628502803</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>782.5587049922989</v>
+        <v>673.6402691555937</v>
       </c>
       <c r="C13" t="n">
-        <v>613.622522064392</v>
+        <v>666.8531999100933</v>
       </c>
       <c r="D13" t="n">
-        <v>463.5058826520562</v>
+        <v>516.7365604977575</v>
       </c>
       <c r="E13" t="n">
-        <v>315.5927890696631</v>
+        <v>368.8234669153644</v>
       </c>
       <c r="F13" t="n">
-        <v>168.7028415717528</v>
+        <v>221.9335194174541</v>
       </c>
       <c r="G13" t="n">
-        <v>168.7028415717528</v>
+        <v>221.9335194174541</v>
       </c>
       <c r="H13" t="n">
-        <v>168.7028415717528</v>
+        <v>77.53766591592071</v>
       </c>
       <c r="I13" t="n">
-        <v>77.53766591592067</v>
+        <v>77.53766591592071</v>
       </c>
       <c r="J13" t="n">
-        <v>136.8552218758646</v>
+        <v>136.8552218758648</v>
       </c>
       <c r="K13" t="n">
-        <v>364.1690246648141</v>
+        <v>364.1690246648143</v>
       </c>
       <c r="L13" t="n">
-        <v>710.5788654344806</v>
+        <v>710.5788654344808</v>
       </c>
       <c r="M13" t="n">
         <v>1086.208595376939</v>
@@ -5215,7 +5215,7 @@
         <v>1786.049800818664</v>
       </c>
       <c r="P13" t="n">
-        <v>2042.940349010721</v>
+        <v>2042.940349010722</v>
       </c>
       <c r="Q13" t="n">
         <v>2137.362968742807</v>
@@ -5224,25 +5224,25 @@
         <v>2137.362968742807</v>
       </c>
       <c r="S13" t="n">
-        <v>1949.247121276103</v>
+        <v>2137.362968742807</v>
       </c>
       <c r="T13" t="n">
-        <v>1728.355788710543</v>
+        <v>1916.471636177248</v>
       </c>
       <c r="U13" t="n">
-        <v>1439.264095659994</v>
+        <v>1627.379943126698</v>
       </c>
       <c r="V13" t="n">
-        <v>1439.264095659994</v>
+        <v>1372.695454920811</v>
       </c>
       <c r="W13" t="n">
-        <v>1149.846925623034</v>
+        <v>1083.278284883851</v>
       </c>
       <c r="X13" t="n">
-        <v>1149.846925623034</v>
+        <v>855.2887339858335</v>
       </c>
       <c r="Y13" t="n">
-        <v>929.0543464795036</v>
+        <v>855.2887339858335</v>
       </c>
     </row>
     <row r="14">
@@ -5270,37 +5270,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
         <v>4606.285157492578</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1016.580456911442</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C16" t="n">
-        <v>847.6442739835355</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711973</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888042</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782954</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5461,25 +5461,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2446.96308358026</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>2191.112710026077</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1936.42822182019</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="W16" t="n">
-        <v>1647.01105178323</v>
+        <v>1466.014387565343</v>
       </c>
       <c r="X16" t="n">
-        <v>1419.021500885212</v>
+        <v>1238.024836667326</v>
       </c>
       <c r="Y16" t="n">
-        <v>1198.228921741682</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="17">
@@ -5507,52 +5507,52 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
         <v>3094.515198591808</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>931.4710609784062</v>
+        <v>559.7594328861221</v>
       </c>
       <c r="C19" t="n">
-        <v>762.5348780504994</v>
+        <v>390.8232499582152</v>
       </c>
       <c r="D19" t="n">
-        <v>612.4182386381636</v>
+        <v>240.7066105458795</v>
       </c>
       <c r="E19" t="n">
-        <v>464.5051450557705</v>
+        <v>240.7066105458795</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2425.823211978714</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2242.968377633618</v>
       </c>
       <c r="T19" t="n">
-        <v>2106.003314093041</v>
+        <v>2023.366912656559</v>
       </c>
       <c r="U19" t="n">
-        <v>2106.003314093041</v>
+        <v>1734.291686000757</v>
       </c>
       <c r="V19" t="n">
-        <v>1851.318825887154</v>
+        <v>1479.60719779487</v>
       </c>
       <c r="W19" t="n">
-        <v>1561.901655850193</v>
+        <v>1190.190027757909</v>
       </c>
       <c r="X19" t="n">
-        <v>1333.912104952176</v>
+        <v>962.200476859892</v>
       </c>
       <c r="Y19" t="n">
-        <v>1113.119525808646</v>
+        <v>741.4078977163618</v>
       </c>
     </row>
     <row r="20">
@@ -5744,25 +5744,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.422291068009</v>
@@ -5771,16 +5771,16 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>251.5626541092265</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>746.8882603249853</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,31 +5884,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263527</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>264.0500279773693</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
         <v>435.7419440038343</v>
@@ -5929,31 +5929,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.811327457203</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2045.209862480144</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>2045.209862480144</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1790.525374274257</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1501.108204237296</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>1501.108204237296</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="23">
@@ -5969,40 +5969,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6066,28 +6066,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400722</v>
+        <v>741.8431516380884</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121654</v>
+        <v>572.9069687101816</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121654</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121654</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121654</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270453</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6148,10 +6148,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038339</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6169,7 +6169,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S25" t="n">
         <v>2197.062545487567</v>
@@ -6178,19 +6178,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.28419561186</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138421</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.502065570312</v>
+        <v>923.4916164683282</v>
       </c>
     </row>
     <row r="26">
@@ -6212,49 +6212,49 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797189</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,46 +6358,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1268.333101637269</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925703</v>
+        <v>1040.343550739252</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>819.5509715957215</v>
       </c>
     </row>
     <row r="29">
@@ -6455,37 +6455,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
         <v>4606.285157492578</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,25 +6534,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400719</v>
+        <v>948.5505208511905</v>
       </c>
       <c r="C31" t="n">
-        <v>344.917417812165</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="D31" t="n">
-        <v>317.6151975578601</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E31" t="n">
-        <v>317.6151975578601</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F31" t="n">
-        <v>317.6151975578601</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
         <v>317.6151975578601</v>
@@ -6616,55 +6616,55 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q31" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2412.173255970012</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2229.318421624916</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>2009.716956647858</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1720.641729992055</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1465.957241786169</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1176.540071749208</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138419</v>
+        <v>948.5505208511905</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703116</v>
+        <v>948.5505208511905</v>
       </c>
     </row>
     <row r="32">
@@ -6692,37 +6692,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075816</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
         <v>4606.285157492578</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,28 +6771,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>352.5519571452613</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>949.9304447718132</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6832,31 +6832,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>580.899304487669</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>411.9631215597622</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>411.9631215597622</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>411.9631215597622</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>411.9631215597622</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>244.767022274642</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>103.0551911168402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
         <v>435.7419440038341</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614389</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179088</v>
       </c>
     </row>
     <row r="35">
@@ -6917,67 +6917,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,28 +7008,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637307</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>560.7825789706076</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>391.8463960427007</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>241.729756630365</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>93.81666304797189</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797189</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797189</v>
@@ -7099,7 +7099,7 @@
         <v>435.7419440038344</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7117,7 +7117,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S37" t="n">
         <v>2197.062545487567</v>
@@ -7126,19 +7126,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1735.314832085242</v>
+        <v>1746.193029533435</v>
       </c>
       <c r="V37" t="n">
-        <v>1480.630343879356</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1191.213173842395</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>963.2236229443776</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>742.4310438008473</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7166,16 +7166,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,37 +7184,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,10 +7245,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
         <v>243.4633055756266</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400726</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121657</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121657</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121657</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121657</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270457</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7351,31 +7351,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
         <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1729.097755135313</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X40" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138422</v>
       </c>
       <c r="Y40" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703123</v>
       </c>
     </row>
     <row r="41">
@@ -7388,70 +7388,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,28 +7482,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637307</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188003</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908934</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908934</v>
       </c>
       <c r="E43" t="n">
-        <v>197.0043242297713</v>
+        <v>402.7245934908935</v>
       </c>
       <c r="F43" t="n">
-        <v>197.0043242297714</v>
+        <v>402.7245934908935</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797189</v>
@@ -7570,10 +7570,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7588,31 +7588,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511391</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166296</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189237</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533435</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327548</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290587</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925699</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490399</v>
       </c>
     </row>
     <row r="44">
@@ -7622,16 +7622,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F44" t="n">
         <v>793.7736536168611</v>
@@ -7640,16 +7640,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7661,7 +7661,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7673,25 +7673,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="45">
@@ -7719,28 +7719,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637307</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>560.7825789706073</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>391.8463960427005</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D46" t="n">
-        <v>241.7297566303648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E46" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7819,37 +7819,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q46" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2426.846358063199</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S46" t="n">
-        <v>2243.991523718103</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>2024.390058741044</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1735.314832085242</v>
+        <v>1746.193029533435</v>
       </c>
       <c r="V46" t="n">
-        <v>1480.630343879355</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1191.213173842395</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>963.2236229443772</v>
+        <v>974.1018203925705</v>
       </c>
       <c r="Y46" t="n">
-        <v>742.4310438008471</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8070,13 +8070,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>92.05878169167812</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>97.32166909127245</v>
+        <v>5.262887399594575</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>34.43939438637014</v>
+        <v>34.43939438637005</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,16 +8292,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>231.6378772658565</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>105.5468419254468</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8538,22 +8538,22 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>273.6534998179983</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>105.1672460959149</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>193.3273467878348</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23270,13 +23270,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>410.4696069132659</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>24.14662204184563</v>
+        <v>24.1466220418456</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,10 +23309,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>201.9388203544492</v>
       </c>
       <c r="U11" t="n">
-        <v>250.959002459687</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23321,10 +23321,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>153.907713499879</v>
+        <v>227.1595638623277</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>34.80129510960445</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>160.5276225455816</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>165.8230033569236</v>
       </c>
       <c r="H13" t="n">
-        <v>142.9518949665179</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>90.25352389927376</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.81330679905243</v>
+        <v>79.81330679905241</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>186.2346889920369</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,16 +23473,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,19 +23698,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>32.892604570603</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>38.89198472948155</v>
       </c>
     </row>
     <row r="17">
@@ -23896,7 +23896,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>45.44677382458998</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>60.88156453658544</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>117.1847295890517</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012264</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0.6960474398180736</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>131.6952193743941</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194126</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>57.22910392194166</v>
+        <v>56.43317025503464</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,22 +24835,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>121.5862749664506</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>31.93331737597606</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>72.11969353038592</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>57.22910392194169</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>46.45968844823119</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194073</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856546</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25603,13 +25603,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>6.257951202384504</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25792,19 +25792,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>63.36835372228666</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856546</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>57.22910392194028</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.45968844823058</v>
+        <v>57.22910392194265</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>266838.575205892</v>
+        <v>266838.5752058919</v>
       </c>
       <c r="C2" t="n">
         <v>266838.575205892</v>
       </c>
       <c r="D2" t="n">
-        <v>266838.575205892</v>
+        <v>266838.5752058919</v>
       </c>
       <c r="E2" t="n">
         <v>238091.5043891787</v>
@@ -26326,7 +26326,7 @@
         <v>262322.6448992519</v>
       </c>
       <c r="G2" t="n">
-        <v>262322.644899252</v>
+        <v>262322.6448992519</v>
       </c>
       <c r="H2" t="n">
         <v>262322.6448992519</v>
@@ -26335,7 +26335,7 @@
         <v>262322.6448992519</v>
       </c>
       <c r="J2" t="n">
-        <v>262322.6448992519</v>
+        <v>262322.644899252</v>
       </c>
       <c r="K2" t="n">
         <v>262322.6448992519</v>
@@ -26350,7 +26350,7 @@
         <v>262322.6448992519</v>
       </c>
       <c r="O2" t="n">
-        <v>262322.644899252</v>
+        <v>262322.6448992519</v>
       </c>
       <c r="P2" t="n">
         <v>262322.6448992519</v>
@@ -26366,16 +26366,16 @@
         <v>680087.9805911932</v>
       </c>
       <c r="C3" t="n">
-        <v>132804.2190657066</v>
+        <v>132804.2190657071</v>
       </c>
       <c r="D3" t="n">
-        <v>265413.0723929381</v>
+        <v>265413.0723929376</v>
       </c>
       <c r="E3" t="n">
-        <v>313577.1573545766</v>
+        <v>313577.1573545769</v>
       </c>
       <c r="F3" t="n">
-        <v>189308.2687704295</v>
+        <v>189308.2687704294</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26384,22 +26384,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911414</v>
+        <v>68999.1544191141</v>
       </c>
       <c r="K3" t="n">
-        <v>30877.4292641741</v>
+        <v>30877.42926417424</v>
       </c>
       <c r="L3" t="n">
-        <v>65018.34502049578</v>
+        <v>65018.34502049563</v>
       </c>
       <c r="M3" t="n">
-        <v>81897.40371273061</v>
+        <v>81897.40371273072</v>
       </c>
       <c r="N3" t="n">
-        <v>49839.5741320238</v>
+        <v>49839.57413202379</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26418,46 +26418,46 @@
         <v>251227.3656190198</v>
       </c>
       <c r="C4" t="n">
-        <v>215494.7982664855</v>
+        <v>215494.7982664854</v>
       </c>
       <c r="D4" t="n">
         <v>140338.6838374607</v>
       </c>
       <c r="E4" t="n">
-        <v>11061.61369214697</v>
+        <v>11061.61369214698</v>
       </c>
       <c r="F4" t="n">
-        <v>11167.03225179348</v>
+        <v>11167.03225179352</v>
       </c>
       <c r="G4" t="n">
-        <v>11167.03225179356</v>
+        <v>11167.03225179352</v>
       </c>
       <c r="H4" t="n">
-        <v>11167.0322517935</v>
+        <v>11167.03225179352</v>
       </c>
       <c r="I4" t="n">
+        <v>11167.03225179354</v>
+      </c>
+      <c r="J4" t="n">
         <v>11167.03225179351</v>
       </c>
-      <c r="J4" t="n">
-        <v>11167.03225179347</v>
-      </c>
       <c r="K4" t="n">
-        <v>11167.03225179348</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="L4" t="n">
-        <v>11167.03225179348</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="M4" t="n">
-        <v>11167.03225179349</v>
+        <v>11167.03225179354</v>
       </c>
       <c r="N4" t="n">
-        <v>11167.03225179349</v>
+        <v>11167.03225179353</v>
       </c>
       <c r="O4" t="n">
-        <v>11167.0322517935</v>
+        <v>11167.03225179354</v>
       </c>
       <c r="P4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.0322517936</v>
       </c>
     </row>
     <row r="5">
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.8032042662</v>
+        <v>63047.80320426621</v>
       </c>
       <c r="C5" t="n">
-        <v>72593.65038667491</v>
+        <v>72593.65038667494</v>
       </c>
       <c r="D5" t="n">
         <v>92937.77243984472</v>
       </c>
       <c r="E5" t="n">
-        <v>85137.48506738563</v>
+        <v>85137.48506738564</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26522,46 +26522,46 @@
         <v>-727524.5742085873</v>
       </c>
       <c r="C6" t="n">
-        <v>-154054.092512975</v>
+        <v>-154054.0925129754</v>
       </c>
       <c r="D6" t="n">
-        <v>-231850.9534643515</v>
+        <v>-231850.9534643511</v>
       </c>
       <c r="E6" t="n">
-        <v>-171684.7517249305</v>
+        <v>-171905.8830389055</v>
       </c>
       <c r="F6" t="n">
-        <v>-39275.18594687815</v>
+        <v>-39309.92387231383</v>
       </c>
       <c r="G6" t="n">
-        <v>150033.0828235513</v>
+        <v>149998.3448981155</v>
       </c>
       <c r="H6" t="n">
-        <v>150033.0828235513</v>
+        <v>149998.3448981156</v>
       </c>
       <c r="I6" t="n">
-        <v>150033.0828235511</v>
+        <v>149998.3448981157</v>
       </c>
       <c r="J6" t="n">
-        <v>81033.92840443712</v>
+        <v>80999.19047900155</v>
       </c>
       <c r="K6" t="n">
-        <v>119155.6535593772</v>
+        <v>119120.9156339414</v>
       </c>
       <c r="L6" t="n">
-        <v>85014.7378030555</v>
+        <v>84979.99987761991</v>
       </c>
       <c r="M6" t="n">
-        <v>68135.67911082064</v>
+        <v>68100.94118538479</v>
       </c>
       <c r="N6" t="n">
-        <v>100193.5086915275</v>
+        <v>100158.7707660917</v>
       </c>
       <c r="O6" t="n">
-        <v>150033.0828235514</v>
+        <v>149998.3448981155</v>
       </c>
       <c r="P6" t="n">
-        <v>150033.0828235513</v>
+        <v>149998.3448981155</v>
       </c>
     </row>
   </sheetData>
@@ -26719,13 +26719,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26738,7 +26738,7 @@
         <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>717.3319511695746</v>
+        <v>717.3319511695749</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175393</v>
@@ -26787,46 +26787,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="C4" t="n">
-        <v>383.6877278154307</v>
+        <v>383.6877278154312</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>969.2208239490084</v>
+        <v>969.2208239490088</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26941,7 +26941,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26960,13 +26960,13 @@
         <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>103.2769374000962</v>
+        <v>103.2769374000966</v>
       </c>
       <c r="D3" t="n">
-        <v>216.7329409479647</v>
+        <v>216.7329409479644</v>
       </c>
       <c r="E3" t="n">
-        <v>268.1763450974106</v>
+        <v>268.1763450974108</v>
       </c>
       <c r="F3" t="n">
         <v>165.7342631267238</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="C4" t="n">
-        <v>119.9738478139244</v>
+        <v>119.973847813925</v>
       </c>
       <c r="D4" t="n">
-        <v>256.8971042846082</v>
+        <v>256.8971042846076</v>
       </c>
       <c r="E4" t="n">
-        <v>328.6359918489695</v>
+        <v>328.63599184897</v>
       </c>
       <c r="F4" t="n">
-        <v>203.48746415064</v>
+        <v>203.4874641506398</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015064</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="K4" t="n">
-        <v>119.9738478139244</v>
+        <v>119.973847813925</v>
       </c>
       <c r="L4" t="n">
-        <v>256.8971042846082</v>
+        <v>256.8971042846076</v>
       </c>
       <c r="M4" t="n">
-        <v>328.6359918489695</v>
+        <v>328.63599184897</v>
       </c>
       <c r="N4" t="n">
-        <v>203.48746415064</v>
+        <v>203.4874641506398</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="K4" t="n">
-        <v>119.9738478139244</v>
+        <v>119.973847813925</v>
       </c>
       <c r="L4" t="n">
-        <v>256.8971042846082</v>
+        <v>256.8971042846076</v>
       </c>
       <c r="M4" t="n">
-        <v>328.6359918489695</v>
+        <v>328.63599184897</v>
       </c>
       <c r="N4" t="n">
-        <v>203.48746415064</v>
+        <v>203.4874641506398</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27379,22 +27379,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>285.7613994649032</v>
       </c>
       <c r="D2" t="n">
-        <v>90.96916161917676</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>118.2164900707556</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>143.1621657402052</v>
       </c>
       <c r="G2" t="n">
-        <v>340.1987280813171</v>
+        <v>149.1202946442038</v>
       </c>
       <c r="H2" t="n">
-        <v>314.193632629268</v>
+        <v>50.47975262776173</v>
       </c>
       <c r="I2" t="n">
         <v>115.3066195468971</v>
@@ -27445,7 +27445,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>122.5240586545474</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27458,7 +27458,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>136.9584043102451</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27467,10 +27467,10 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>139.5193938382602</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
         <v>99.47932027120974</v>
@@ -27506,16 +27506,16 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
         <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27524,7 +27524,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27558,7 +27558,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27585,19 +27585,19 @@
         <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>25.90284490316185</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>22.5447505011713</v>
+        <v>22.54475050117122</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>130.1068230422428</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27619,19 +27619,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>225.1865829645437</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>148.9769961525389</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>28.73126316233927</v>
-      </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>309.9416328899766</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>143.3066953660376</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27676,13 +27676,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>2.550210840622356</v>
       </c>
     </row>
     <row r="6">
@@ -27695,10 +27695,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>34.1639568454564</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -27707,13 +27707,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>135.8005767399402</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>97.33388804333228</v>
+        <v>97.33388804333227</v>
       </c>
       <c r="I6" t="n">
-        <v>36.27346476951733</v>
+        <v>36.2734647695173</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,16 +27740,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>1.164486387938597</v>
       </c>
       <c r="S6" t="n">
-        <v>143.0237294698459</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>193.9455960238326</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8398728426018</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27758,10 +27758,10 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27774,19 +27774,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.6974299383169</v>
+        <v>97.08216147567887</v>
       </c>
       <c r="H7" t="n">
         <v>150.7263422083602</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>119.1307056315184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>201.4735595059547</v>
       </c>
       <c r="T7" t="n">
         <v>222.4186055422208</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2484721153922</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>174.5328052907726</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,25 +27853,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>98.54025994826696</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,13 +27904,13 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>174.8854175765934</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,13 +28059,13 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>89.30631637297319</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,10 +28074,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>201.1568951983996</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28488,7 +28488,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-2.518305564080947e-12</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -28627,10 +28627,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>-8.30056023914949e-13</v>
       </c>
       <c r="Y17" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28731,7 +28731,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>2.753019145984581e-12</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -29004,7 +29004,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>-9.521272659185342e-13</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29329,7 +29329,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29560,7 +29560,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>-8.30056023914949e-13</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -29797,7 +29797,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>-8.30056023914949e-13</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30220,13 +30220,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>-6.536993168992922e-13</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30457,16 +30457,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -30694,19 +30694,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>1.54335762560769e-12</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.883746537365122</v>
+        <v>2.883746537365123</v>
       </c>
       <c r="H5" t="n">
-        <v>29.53316922579056</v>
+        <v>29.53316922579058</v>
       </c>
       <c r="I5" t="n">
         <v>111.175638381769</v>
       </c>
       <c r="J5" t="n">
-        <v>244.7543826756932</v>
+        <v>244.7543826756934</v>
       </c>
       <c r="K5" t="n">
-        <v>366.8233736023589</v>
+        <v>366.8233736023591</v>
       </c>
       <c r="L5" t="n">
-        <v>455.0768316952469</v>
+        <v>455.0768316952471</v>
       </c>
       <c r="M5" t="n">
-        <v>506.3606591791138</v>
+        <v>506.3606591791141</v>
       </c>
       <c r="N5" t="n">
-        <v>514.5541040284025</v>
+        <v>514.5541040284028</v>
       </c>
       <c r="O5" t="n">
-        <v>485.8788493974781</v>
+        <v>485.8788493974783</v>
       </c>
       <c r="P5" t="n">
-        <v>414.6863567562766</v>
+        <v>414.6863567562767</v>
       </c>
       <c r="Q5" t="n">
-        <v>311.412183886888</v>
+        <v>311.4121838868882</v>
       </c>
       <c r="R5" t="n">
-        <v>181.146143427762</v>
+        <v>181.1461434277621</v>
       </c>
       <c r="S5" t="n">
-        <v>65.71337422020778</v>
+        <v>65.71337422020781</v>
       </c>
       <c r="T5" t="n">
         <v>12.62360046731583</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2306997229892097</v>
+        <v>0.2306997229892098</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31358,46 +31358,46 @@
         <v>1.542940423270406</v>
       </c>
       <c r="H6" t="n">
-        <v>14.90155619316418</v>
+        <v>14.90155619316419</v>
       </c>
       <c r="I6" t="n">
-        <v>53.12316808189775</v>
+        <v>53.12316808189777</v>
       </c>
       <c r="J6" t="n">
         <v>145.7740335862624</v>
       </c>
       <c r="K6" t="n">
-        <v>249.1510419453795</v>
+        <v>249.1510419453797</v>
       </c>
       <c r="L6" t="n">
-        <v>335.014323043866</v>
+        <v>335.0143230438662</v>
       </c>
       <c r="M6" t="n">
-        <v>390.9459133874181</v>
+        <v>390.9459133874183</v>
       </c>
       <c r="N6" t="n">
-        <v>401.2930884189114</v>
+        <v>401.2930884189116</v>
       </c>
       <c r="O6" t="n">
-        <v>367.1047769348671</v>
+        <v>367.1047769348673</v>
       </c>
       <c r="P6" t="n">
-        <v>294.6339480190655</v>
+        <v>294.6339480190657</v>
       </c>
       <c r="Q6" t="n">
-        <v>196.9549915739557</v>
+        <v>196.9549915739558</v>
       </c>
       <c r="R6" t="n">
-        <v>95.79765189392927</v>
+        <v>95.79765189392931</v>
       </c>
       <c r="S6" t="n">
-        <v>28.65944163399195</v>
+        <v>28.65944163399196</v>
       </c>
       <c r="T6" t="n">
-        <v>6.219132670989046</v>
+        <v>6.219132670989048</v>
       </c>
       <c r="U6" t="n">
-        <v>0.101509238373053</v>
+        <v>0.1015092383730531</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,43 +31440,43 @@
         <v>11.50083029907942</v>
       </c>
       <c r="I7" t="n">
-        <v>38.90055892572055</v>
+        <v>38.90055892572057</v>
       </c>
       <c r="J7" t="n">
-        <v>91.4539440040292</v>
+        <v>91.45394400402924</v>
       </c>
       <c r="K7" t="n">
-        <v>150.2869235401174</v>
+        <v>150.2869235401175</v>
       </c>
       <c r="L7" t="n">
         <v>192.3155201545447</v>
       </c>
       <c r="M7" t="n">
-        <v>202.7697513773274</v>
+        <v>202.7697513773275</v>
       </c>
       <c r="N7" t="n">
-        <v>197.9483399022534</v>
+        <v>197.9483399022535</v>
       </c>
       <c r="O7" t="n">
-        <v>182.8373307669598</v>
+        <v>182.8373307669599</v>
       </c>
       <c r="P7" t="n">
-        <v>156.4489225960658</v>
+        <v>156.4489225960659</v>
       </c>
       <c r="Q7" t="n">
         <v>108.3171246266058</v>
       </c>
       <c r="R7" t="n">
-        <v>58.16268574565106</v>
+        <v>58.16268574565109</v>
       </c>
       <c r="S7" t="n">
-        <v>22.5430385310176</v>
+        <v>22.54303853101761</v>
       </c>
       <c r="T7" t="n">
-        <v>5.526983886060655</v>
+        <v>5.526983886060657</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07055724109864675</v>
+        <v>0.07055724109864679</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,10 +31750,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.833130601869142</v>
+        <v>4.833130601869143</v>
       </c>
       <c r="H11" t="n">
-        <v>49.49729877639236</v>
+        <v>49.49729877639237</v>
       </c>
       <c r="I11" t="n">
         <v>186.3292675285603</v>
@@ -31762,28 +31762,28 @@
         <v>410.2059184203915</v>
       </c>
       <c r="K11" t="n">
-        <v>614.7923367975123</v>
+        <v>614.7923367975125</v>
       </c>
       <c r="L11" t="n">
-        <v>762.7042574544653</v>
+        <v>762.7042574544654</v>
       </c>
       <c r="M11" t="n">
-        <v>848.6554437954555</v>
+        <v>848.6554437954558</v>
       </c>
       <c r="N11" t="n">
-        <v>862.3875761180163</v>
+        <v>862.3875761180165</v>
       </c>
       <c r="O11" t="n">
-        <v>814.32813369568</v>
+        <v>814.3281336956802</v>
       </c>
       <c r="P11" t="n">
-        <v>695.0102219620354</v>
+        <v>695.0102219620356</v>
       </c>
       <c r="Q11" t="n">
-        <v>521.9237322825967</v>
+        <v>521.9237322825968</v>
       </c>
       <c r="R11" t="n">
-        <v>303.5991401696627</v>
+        <v>303.5991401696628</v>
       </c>
       <c r="S11" t="n">
         <v>110.1349635900932</v>
@@ -31792,7 +31792,7 @@
         <v>21.15702920968218</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3866504481495313</v>
+        <v>0.3866504481495314</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31832,10 +31832,10 @@
         <v>2.585952849858572</v>
       </c>
       <c r="H12" t="n">
-        <v>24.97486041837094</v>
+        <v>24.97486041837095</v>
       </c>
       <c r="I12" t="n">
-        <v>89.03390294469206</v>
+        <v>89.03390294469207</v>
       </c>
       <c r="J12" t="n">
         <v>244.3158348193136</v>
@@ -31844,28 +31844,28 @@
         <v>417.5746757598379</v>
       </c>
       <c r="L12" t="n">
-        <v>171.3336650206128</v>
+        <v>561.4806834747747</v>
       </c>
       <c r="M12" t="n">
-        <v>655.2214742821476</v>
+        <v>655.2214742821477</v>
       </c>
       <c r="N12" t="n">
-        <v>672.5632370340502</v>
+        <v>282.416218579887</v>
       </c>
       <c r="O12" t="n">
-        <v>615.2639659924471</v>
+        <v>615.2639659924472</v>
       </c>
       <c r="P12" t="n">
-        <v>493.8035753383443</v>
+        <v>493.8035753383444</v>
       </c>
       <c r="Q12" t="n">
-        <v>330.0946129047538</v>
+        <v>330.0946129047539</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>48.0329399962765</v>
+        <v>48.03293999627652</v>
       </c>
       <c r="T12" t="n">
         <v>10.42320468868433</v>
@@ -31908,22 +31908,22 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.167976001535155</v>
+        <v>2.167976001535156</v>
       </c>
       <c r="H13" t="n">
         <v>19.27527754092167</v>
       </c>
       <c r="I13" t="n">
-        <v>65.19695102798451</v>
+        <v>65.19695102798453</v>
       </c>
       <c r="J13" t="n">
         <v>153.2759033085355</v>
       </c>
       <c r="K13" t="n">
-        <v>251.8793936329025</v>
+        <v>251.8793936329026</v>
       </c>
       <c r="L13" t="n">
-        <v>322.318904810054</v>
+        <v>322.3189048100541</v>
       </c>
       <c r="M13" t="n">
         <v>339.8400926770062</v>
@@ -31932,25 +31932,25 @@
         <v>331.7594548531027</v>
       </c>
       <c r="O13" t="n">
-        <v>306.4335533806237</v>
+        <v>306.4335533806238</v>
       </c>
       <c r="P13" t="n">
         <v>262.2068429493063</v>
       </c>
       <c r="Q13" t="n">
-        <v>181.5384268194574</v>
+        <v>181.5384268194575</v>
       </c>
       <c r="R13" t="n">
-        <v>97.48008457811706</v>
+        <v>97.48008457811707</v>
       </c>
       <c r="S13" t="n">
         <v>37.78190904493538</v>
       </c>
       <c r="T13" t="n">
-        <v>9.26317018837748</v>
+        <v>9.263170188377481</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1182532364473722</v>
+        <v>0.1182532364473723</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>416.4300581532619</v>
       </c>
       <c r="N15" t="n">
-        <v>616.9033572954396</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>468.3778278510275</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,37 +32552,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>297.1808238847171</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>468.3778278510275</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,31 +33251,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33287,13 +33287,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,34 +33488,34 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>399.9031616963282</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33524,13 +33524,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,34 +33725,34 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33761,13 +33761,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33974,16 +33974,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>400.5469039565762</v>
@@ -33998,13 +33998,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,34 +34199,34 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34235,13 +34235,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,34 +34436,34 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34472,13 +34472,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34790,13 +34790,13 @@
         <v>212.1757243460657</v>
       </c>
       <c r="O3" t="n">
-        <v>171.6550983098281</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="P3" t="n">
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>125.9385470877689</v>
+        <v>33.87976539609099</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>63.70847814900694</v>
+        <v>63.70847814900708</v>
       </c>
       <c r="K5" t="n">
-        <v>146.7335225573784</v>
+        <v>146.7335225573785</v>
       </c>
       <c r="L5" t="n">
-        <v>219.3104167252596</v>
+        <v>219.3104167252598</v>
       </c>
       <c r="M5" t="n">
-        <v>276.0144259518411</v>
+        <v>276.0144259518413</v>
       </c>
       <c r="N5" t="n">
-        <v>285.1410404318116</v>
+        <v>285.1410404318119</v>
       </c>
       <c r="O5" t="n">
-        <v>255.7806379757913</v>
+        <v>255.7806379757916</v>
       </c>
       <c r="P5" t="n">
-        <v>183.453361001007</v>
+        <v>183.4533610010072</v>
       </c>
       <c r="Q5" t="n">
-        <v>89.10649401243856</v>
+        <v>89.10649401243867</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>145.0274422600045</v>
+        <v>18.93640691959573</v>
       </c>
       <c r="K6" t="n">
-        <v>111.3096029710206</v>
+        <v>342.9474802368772</v>
       </c>
       <c r="L6" t="n">
-        <v>196.4599432639918</v>
+        <v>196.459943263992</v>
       </c>
       <c r="M6" t="n">
-        <v>354.3587213908465</v>
+        <v>248.8118794654</v>
       </c>
       <c r="N6" t="n">
-        <v>269.9513763355781</v>
+        <v>269.9513763355783</v>
       </c>
       <c r="O6" t="n">
-        <v>224.5085324904227</v>
+        <v>224.5085324904229</v>
       </c>
       <c r="P6" t="n">
-        <v>160.6595406047352</v>
+        <v>160.6595406047354</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.97321748793416</v>
+        <v>56.97321748793425</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>128.0174317142345</v>
+        <v>128.0174317142346</v>
       </c>
       <c r="L7" t="n">
-        <v>219.9055454148608</v>
+        <v>219.9055454148609</v>
       </c>
       <c r="M7" t="n">
-        <v>242.353628339168</v>
+        <v>242.3536283391681</v>
       </c>
       <c r="N7" t="n">
-        <v>242.080512281482</v>
+        <v>242.0805122814821</v>
       </c>
       <c r="O7" t="n">
-        <v>207.4224586809995</v>
+        <v>207.4224586809996</v>
       </c>
       <c r="P7" t="n">
-        <v>153.7274818609593</v>
+        <v>153.7274818609594</v>
       </c>
       <c r="Q7" t="n">
-        <v>22.15508137491138</v>
+        <v>22.15508137491143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35258,22 +35258,22 @@
         <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>640.5848321000389</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>496.3643456887889</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>528.7520287839578</v>
       </c>
       <c r="P9" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35410,28 +35410,28 @@
         <v>229.1600138937052</v>
       </c>
       <c r="K11" t="n">
-        <v>394.7024857525318</v>
+        <v>394.7024857525319</v>
       </c>
       <c r="L11" t="n">
         <v>526.9378424844781</v>
       </c>
       <c r="M11" t="n">
-        <v>618.3092105681828</v>
+        <v>618.3092105681831</v>
       </c>
       <c r="N11" t="n">
-        <v>632.9745125214254</v>
+        <v>632.9745125214256</v>
       </c>
       <c r="O11" t="n">
-        <v>584.2299222739932</v>
+        <v>584.2299222739935</v>
       </c>
       <c r="P11" t="n">
-        <v>463.7772262067659</v>
+        <v>463.7772262067661</v>
       </c>
       <c r="Q11" t="n">
-        <v>299.6180424081472</v>
+        <v>299.6180424081473</v>
       </c>
       <c r="R11" t="n">
-        <v>88.01360235553062</v>
+        <v>88.01360235553068</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,22 +35492,22 @@
         <v>279.7332367854789</v>
       </c>
       <c r="L12" t="n">
-        <v>32.77928524073863</v>
+        <v>422.9263036949005</v>
       </c>
       <c r="M12" t="n">
-        <v>513.0874403601292</v>
+        <v>513.0874403601294</v>
       </c>
       <c r="N12" t="n">
-        <v>541.2215249507169</v>
+        <v>151.0745064965536</v>
       </c>
       <c r="O12" t="n">
-        <v>472.6677215480026</v>
+        <v>472.6677215480028</v>
       </c>
       <c r="P12" t="n">
-        <v>359.829167924014</v>
+        <v>359.8291679240141</v>
       </c>
       <c r="Q12" t="n">
-        <v>190.1128388187323</v>
+        <v>190.1128388187324</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.9167231918627</v>
+        <v>59.91672319186273</v>
       </c>
       <c r="K13" t="n">
         <v>229.6099018070197</v>
@@ -35580,13 +35580,13 @@
         <v>375.8916272323313</v>
       </c>
       <c r="O13" t="n">
-        <v>331.0186812946634</v>
+        <v>331.0186812946635</v>
       </c>
       <c r="P13" t="n">
         <v>259.4854022141998</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.37638356776306</v>
+        <v>95.37638356776309</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>274.2960242312436</v>
       </c>
       <c r="N15" t="n">
-        <v>485.5616452121063</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36200,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>159.3393849103582</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,16 +36914,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,25 +37145,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>261.348781916454</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,25 +37382,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,13 +37625,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>257.9506595121318</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295343</v>
       </c>
       <c r="K40" t="n">
         <v>264.332588409635</v>
@@ -37707,10 +37707,10 @@
         <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O40" t="n">
         <v>373.2618997060455</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,25 +37856,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295343</v>
       </c>
       <c r="K43" t="n">
         <v>264.332588409635</v>
@@ -37944,10 +37944,10 @@
         <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O43" t="n">
         <v>373.2618997060455</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,25 +38093,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
